--- a/data/trans_orig/P29-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/P29-Dificultad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>195706</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>174052</v>
+        <v>173525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>219558</v>
+        <v>220975</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3350314053759472</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2979629475633111</v>
+        <v>0.2970598442499729</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3758655494494402</v>
+        <v>0.3782896725768959</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>572</v>
@@ -765,19 +765,19 @@
         <v>601453</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>572522</v>
+        <v>571117</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>632516</v>
+        <v>631401</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6520999652590744</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6207322252724651</v>
+        <v>0.6192089351203461</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6857778401040658</v>
+        <v>0.6845698932637034</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>765</v>
@@ -786,19 +786,19 @@
         <v>797159</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>758302</v>
+        <v>755638</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>835442</v>
+        <v>837968</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5291553885258707</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.5033623638334112</v>
+        <v>0.5015937412946779</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5545681128821101</v>
+        <v>0.5562443007624901</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>87716</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>71544</v>
+        <v>71399</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>106004</v>
+        <v>108016</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1501619562281843</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1224766552890027</v>
+        <v>0.1222286311814814</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1814702683167855</v>
+        <v>0.1849138971787601</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>138</v>
@@ -836,19 +836,19 @@
         <v>138337</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>116142</v>
+        <v>116864</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>159817</v>
+        <v>161356</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1499859859191437</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1259222231146278</v>
+        <v>0.1267051233153904</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1732742767357753</v>
+        <v>0.1749429749847148</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>224</v>
@@ -857,19 +857,19 @@
         <v>226053</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>199474</v>
+        <v>200638</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>253593</v>
+        <v>257187</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1500542190961278</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1324113304499891</v>
+        <v>0.1331838798649838</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1683355511563906</v>
+        <v>0.1707208432128691</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>300720</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>277453</v>
+        <v>275130</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>325450</v>
+        <v>326742</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5148066383958685</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4749763965767449</v>
+        <v>0.4709995794526399</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5571429340768937</v>
+        <v>0.5593554880649528</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>175</v>
@@ -907,19 +907,19 @@
         <v>182543</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>158251</v>
+        <v>158384</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>209067</v>
+        <v>206217</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1979140488217818</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1715765314790486</v>
+        <v>0.1717207750612697</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2266716215010164</v>
+        <v>0.2235820297166858</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>470</v>
@@ -928,19 +928,19 @@
         <v>483262</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>446216</v>
+        <v>447721</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>515513</v>
+        <v>519948</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3207903923780014</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2961988426533503</v>
+        <v>0.2971982868491991</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3421984127669891</v>
+        <v>0.3451421922516487</v>
       </c>
     </row>
     <row r="7">
@@ -1032,19 +1032,19 @@
         <v>272912</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>243871</v>
+        <v>247344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>304221</v>
+        <v>304542</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2531902549794168</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2262475001522314</v>
+        <v>0.2294693536920815</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2822369159790615</v>
+        <v>0.2825346040506858</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>540</v>
@@ -1053,19 +1053,19 @@
         <v>560129</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>528715</v>
+        <v>527841</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>592736</v>
+        <v>591679</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5296537987220774</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4999489986064108</v>
+        <v>0.4991222253408237</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5604869663970246</v>
+        <v>0.5594867546717643</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>799</v>
@@ -1074,19 +1074,19 @@
         <v>833041</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>783171</v>
+        <v>787054</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>873426</v>
+        <v>877223</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3901043309610822</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.366750623372563</v>
+        <v>0.3685689935314875</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4090159016562983</v>
+        <v>0.4107939841051288</v>
       </c>
     </row>
     <row r="9">
@@ -1103,19 +1103,19 @@
         <v>172318</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>147879</v>
+        <v>149877</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>197983</v>
+        <v>199936</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1598655403269436</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1371926140156297</v>
+        <v>0.1390466023656802</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1836755687104628</v>
+        <v>0.1854872321557068</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>248</v>
@@ -1124,19 +1124,19 @@
         <v>249692</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>221953</v>
+        <v>223604</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>276938</v>
+        <v>275615</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2361073246427004</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2098767436543241</v>
+        <v>0.2114379580716765</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2618709454024493</v>
+        <v>0.2606197489347091</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>417</v>
@@ -1145,19 +1145,19 @@
         <v>422011</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>388655</v>
+        <v>386052</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>460016</v>
+        <v>458556</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1976230446599625</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1820029226844325</v>
+        <v>0.1807838543882608</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2154207891195462</v>
+        <v>0.2147367880180099</v>
       </c>
     </row>
     <row r="10">
@@ -1174,19 +1174,19 @@
         <v>632664</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>599894</v>
+        <v>600065</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>668027</v>
+        <v>663069</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5869442046936396</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5565424032122039</v>
+        <v>0.5567013980586268</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6197524043463293</v>
+        <v>0.6151520294098968</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>240</v>
@@ -1195,19 +1195,19 @@
         <v>247717</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>221054</v>
+        <v>219304</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>277304</v>
+        <v>273285</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2342388766352222</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2090266017614269</v>
+        <v>0.2073724753014844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.262216801860536</v>
+        <v>0.2584164100604596</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>867</v>
@@ -1216,19 +1216,19 @@
         <v>880380</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>839062</v>
+        <v>836091</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>927431</v>
+        <v>925286</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4122726243789553</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3929237577699319</v>
+        <v>0.3915326382133195</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4343058521131374</v>
+        <v>0.4333016602540151</v>
       </c>
     </row>
     <row r="11">
@@ -1320,19 +1320,19 @@
         <v>265848</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>237067</v>
+        <v>237587</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>293257</v>
+        <v>292251</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2370268716648991</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.211366570416723</v>
+        <v>0.2118297944629856</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2614641933869917</v>
+        <v>0.2605674885218706</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>431</v>
@@ -1341,19 +1341,19 @@
         <v>443864</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>409934</v>
+        <v>413072</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>474391</v>
+        <v>477243</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4465699036856522</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.412433781700631</v>
+        <v>0.4155908873395592</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4772828931532989</v>
+        <v>0.4801527896681245</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>690</v>
@@ -1362,19 +1362,19 @@
         <v>709712</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>663256</v>
+        <v>666998</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>752066</v>
+        <v>755852</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3354763081642673</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3135169075787705</v>
+        <v>0.3152858714168874</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3554970159113973</v>
+        <v>0.35728654597564</v>
       </c>
     </row>
     <row r="13">
@@ -1391,19 +1391,19 @@
         <v>199511</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>176282</v>
+        <v>175981</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>227409</v>
+        <v>226561</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.177882022027916</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1571707684089517</v>
+        <v>0.1569024355812431</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2027550286266225</v>
+        <v>0.2019993756077176</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>238</v>
@@ -1412,19 +1412,19 @@
         <v>232326</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205862</v>
+        <v>206384</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>260146</v>
+        <v>257515</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2337428032479308</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2071168480936878</v>
+        <v>0.2076419377942163</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.261732298865838</v>
+        <v>0.2590851916890147</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>440</v>
@@ -1433,19 +1433,19 @@
         <v>431838</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>397715</v>
+        <v>396951</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>472213</v>
+        <v>467348</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2041270485529702</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1879975378647997</v>
+        <v>0.187636498886001</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2232123933620352</v>
+        <v>0.2209123390196656</v>
       </c>
     </row>
     <row r="14">
@@ -1462,19 +1462,19 @@
         <v>656235</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>620677</v>
+        <v>625536</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>690218</v>
+        <v>690335</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5850911063071849</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5533880524200445</v>
+        <v>0.5577201093095563</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6153903163182084</v>
+        <v>0.6154946622399724</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>313</v>
@@ -1483,19 +1483,19 @@
         <v>317750</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>288755</v>
+        <v>287561</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>348999</v>
+        <v>345129</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.319687293066417</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2905155345198684</v>
+        <v>0.2893140858665452</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3511264544030936</v>
+        <v>0.3472336502390621</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>955</v>
@@ -1504,19 +1504,19 @@
         <v>973985</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>928446</v>
+        <v>928707</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1017741</v>
+        <v>1019498</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4603966432827625</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4388708527094913</v>
+        <v>0.4389941991435986</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4810801003475561</v>
+        <v>0.4819103921461137</v>
       </c>
     </row>
     <row r="15">
@@ -1608,19 +1608,19 @@
         <v>97183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>79614</v>
+        <v>79713</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>115933</v>
+        <v>116509</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.217314893481705</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.178026785316723</v>
+        <v>0.1782501548256607</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2592419005260527</v>
+        <v>0.2605310348971364</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>142</v>
@@ -1629,19 +1629,19 @@
         <v>146331</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>128839</v>
+        <v>129967</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>164586</v>
+        <v>164143</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4289257274078036</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.377651447578773</v>
+        <v>0.380959400160172</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4824344920943033</v>
+        <v>0.4811352222077147</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>238</v>
@@ -1650,19 +1650,19 @@
         <v>243515</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>220226</v>
+        <v>220120</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>269783</v>
+        <v>269685</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3088884918090805</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2793477091750821</v>
+        <v>0.2792131574085905</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3422088163898813</v>
+        <v>0.3420847775196886</v>
       </c>
     </row>
     <row r="17">
@@ -1679,19 +1679,19 @@
         <v>73521</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>60017</v>
+        <v>58686</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>91407</v>
+        <v>92012</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1644027383558974</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1342065920149842</v>
+        <v>0.131230349230197</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2043973871039762</v>
+        <v>0.2057523071033119</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>64</v>
@@ -1700,19 +1700,19 @@
         <v>61999</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>48771</v>
+        <v>49580</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>76461</v>
+        <v>76442</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1817314837483155</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1429576071778523</v>
+        <v>0.145328947908267</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2241207754142482</v>
+        <v>0.2240665337725212</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>138</v>
@@ -1721,19 +1721,19 @@
         <v>135520</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>117109</v>
+        <v>116750</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>156465</v>
+        <v>158526</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1719016718492404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1485473718374264</v>
+        <v>0.1480931003691549</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1984695571085529</v>
+        <v>0.2010835826248556</v>
       </c>
     </row>
     <row r="18">
@@ -1750,19 +1750,19 @@
         <v>276496</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>254758</v>
+        <v>252504</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>295915</v>
+        <v>296136</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6182823681623977</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5696737819331309</v>
+        <v>0.5646341732876382</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6617061072000583</v>
+        <v>0.6622001738381904</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>133</v>
@@ -1771,19 +1771,19 @@
         <v>132827</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>116052</v>
+        <v>115294</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>151651</v>
+        <v>149859</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3893427888438808</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3401698675486359</v>
+        <v>0.3379491022577166</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4445170443484797</v>
+        <v>0.4392645227555642</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>399</v>
@@ -1792,19 +1792,19 @@
         <v>409323</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>382345</v>
+        <v>382939</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>437166</v>
+        <v>437732</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5192098363416792</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4849889297240553</v>
+        <v>0.4857423261951957</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5545270028830982</v>
+        <v>0.5552446968356979</v>
       </c>
     </row>
     <row r="19">
@@ -1896,19 +1896,19 @@
         <v>831649</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>778746</v>
+        <v>783756</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>881218</v>
+        <v>882983</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2574104090035491</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2410359015013922</v>
+        <v>0.2425866926871526</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2727528298470423</v>
+        <v>0.2732990547967313</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1685</v>
@@ -1917,19 +1917,19 @@
         <v>1751777</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1693016</v>
+        <v>1692555</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1809586</v>
+        <v>1803761</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5284446091065452</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5107183779304971</v>
+        <v>0.5105794129658117</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5458831488189514</v>
+        <v>0.544126032830848</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2492</v>
@@ -1938,19 +1938,19 @@
         <v>2583426</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2507628</v>
+        <v>2503264</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>2664614</v>
+        <v>2663456</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.3946694424734581</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3830896846754934</v>
+        <v>0.3824229836031989</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4070724090368154</v>
+        <v>0.4068955497384867</v>
       </c>
     </row>
     <row r="21">
@@ -1967,19 +1967,19 @@
         <v>533066</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>492241</v>
+        <v>492462</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>574819</v>
+        <v>575012</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.1649936209823612</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.152357627256721</v>
+        <v>0.1524258746754804</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.177917016355724</v>
+        <v>0.1779766294678123</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>688</v>
@@ -1988,19 +1988,19 @@
         <v>682355</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>637497</v>
+        <v>636904</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>724491</v>
+        <v>725324</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.2058405197389885</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.1923085237566713</v>
+        <v>0.1921297205061858</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.2185514722551033</v>
+        <v>0.2188027141467201</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>1219</v>
@@ -2009,19 +2009,19 @@
         <v>1215421</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>1150406</v>
+        <v>1155715</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>1275542</v>
+        <v>1274312</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1856795928687406</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1757472695012505</v>
+        <v>0.1765582525900324</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1948643119430762</v>
+        <v>0.194676380216214</v>
       </c>
     </row>
     <row r="22">
@@ -2038,19 +2038,19 @@
         <v>1866114</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1804470</v>
+        <v>1813042</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1920499</v>
+        <v>1927968</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5775959700140897</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.558516087785653</v>
+        <v>0.5611692444132138</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5944290928139699</v>
+        <v>0.5967408757315357</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>861</v>
@@ -2059,19 +2059,19 @@
         <v>880837</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>830491</v>
+        <v>830158</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>933956</v>
+        <v>936770</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2657148711544662</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2505273869721305</v>
+        <v>0.2504270197571412</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2817390085821906</v>
+        <v>0.2825879742061599</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2691</v>
@@ -2080,19 +2080,19 @@
         <v>2746950</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2667345</v>
+        <v>2677055</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2826731</v>
+        <v>2835561</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4196509646578013</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4074896548549162</v>
+        <v>0.4089731261016925</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4318389852013849</v>
+        <v>0.4331880455319513</v>
       </c>
     </row>
     <row r="23">
@@ -2424,19 +2424,19 @@
         <v>332115</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>303231</v>
+        <v>302733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>364163</v>
+        <v>361838</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3181374701016281</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.290469167635129</v>
+        <v>0.2899926600112018</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3488363832629412</v>
+        <v>0.3466098757253833</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>657</v>
@@ -2445,19 +2445,19 @@
         <v>712211</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>677475</v>
+        <v>677166</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>746440</v>
+        <v>744014</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.6359439027304219</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.6049274417108618</v>
+        <v>0.6046514492986167</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.6665073324711492</v>
+        <v>0.6643409289957044</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>963</v>
@@ -2466,19 +2466,19 @@
         <v>1044326</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>997147</v>
+        <v>997056</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1091190</v>
+        <v>1094071</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4826212708014744</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4608178215687934</v>
+        <v>0.4607757352826907</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5042784807312788</v>
+        <v>0.5056102460245852</v>
       </c>
     </row>
     <row r="5">
@@ -2495,19 +2495,19 @@
         <v>106944</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>87467</v>
+        <v>88287</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>127935</v>
+        <v>127092</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1024430371651267</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.08378554928713204</v>
+        <v>0.08457150014174356</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1225509853697812</v>
+        <v>0.1217431926598776</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>114</v>
@@ -2516,19 +2516,19 @@
         <v>122879</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>103044</v>
+        <v>101517</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>147087</v>
+        <v>147492</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1097205377579216</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.09200967437284964</v>
+        <v>0.09064626203398615</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1313363781221005</v>
+        <v>0.1316975020457875</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>216</v>
@@ -2537,19 +2537,19 @@
         <v>229823</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>201498</v>
+        <v>201431</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>260442</v>
+        <v>263517</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1062095781605271</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09311944065193208</v>
+        <v>0.09308848616092022</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.120359558454884</v>
+        <v>0.1217807960968146</v>
       </c>
     </row>
     <row r="6">
@@ -2566,19 +2566,19 @@
         <v>604876</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>569608</v>
+        <v>575237</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>634995</v>
+        <v>639294</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5794194927332452</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5456359240224118</v>
+        <v>0.5510274921199935</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6082703835555446</v>
+        <v>0.6123889482075754</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>260</v>
@@ -2587,19 +2587,19 @@
         <v>284838</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>254506</v>
+        <v>255239</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>315410</v>
+        <v>315996</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2543355595116565</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2272523109858138</v>
+        <v>0.2279061732045813</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2816343936596342</v>
+        <v>0.2821574393912324</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>830</v>
@@ -2608,19 +2608,19 @@
         <v>889714</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>843406</v>
+        <v>845249</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>935887</v>
+        <v>938447</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4111691510379986</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3897684610682828</v>
+        <v>0.3906204369691861</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4325077223411374</v>
+        <v>0.4336904742549013</v>
       </c>
     </row>
     <row r="7">
@@ -2712,19 +2712,19 @@
         <v>232353</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>206383</v>
+        <v>204874</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>260714</v>
+        <v>262588</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.237805215505025</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2112259026642457</v>
+        <v>0.2096810356166589</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2668312852796371</v>
+        <v>0.2687499472791756</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>553</v>
@@ -2733,19 +2733,19 @@
         <v>594708</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>559906</v>
+        <v>559152</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>628868</v>
+        <v>628092</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5439591287145495</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5121265399328662</v>
+        <v>0.5114366518278395</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5752039062736575</v>
+        <v>0.5744937103259611</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>769</v>
@@ -2754,19 +2754,19 @@
         <v>827061</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>779588</v>
+        <v>781176</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>872584</v>
+        <v>871522</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3994753426897417</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.376545517888091</v>
+        <v>0.3773122792560353</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4214630152494859</v>
+        <v>0.4209499434690712</v>
       </c>
     </row>
     <row r="9">
@@ -2783,19 +2783,19 @@
         <v>155660</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>133010</v>
+        <v>134400</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>179661</v>
+        <v>177706</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1593123501747151</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1361310941866734</v>
+        <v>0.1375532807245196</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.1838762870018519</v>
+        <v>0.1818756099999993</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>171</v>
@@ -2804,19 +2804,19 @@
         <v>179469</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>157847</v>
+        <v>156922</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>205978</v>
+        <v>205156</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.1641542613530696</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1443767684406028</v>
+        <v>0.1435314053904346</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1884006573545174</v>
+        <v>0.1876495433159402</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>321</v>
@@ -2825,19 +2825,19 @@
         <v>335129</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>301702</v>
+        <v>303045</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>369617</v>
+        <v>369850</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.1618692091996917</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1457236592951102</v>
+        <v>0.1463725030180524</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.1785271313594742</v>
+        <v>0.1786395451746501</v>
       </c>
     </row>
     <row r="10">
@@ -2854,19 +2854,19 @@
         <v>589060</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>558592</v>
+        <v>552742</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>621193</v>
+        <v>620778</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6028824343202599</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5716994626757507</v>
+        <v>0.5657125783247862</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6357695438475103</v>
+        <v>0.6353441941633552</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>295</v>
@@ -2875,19 +2875,19 @@
         <v>319118</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>289868</v>
+        <v>291225</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>354867</v>
+        <v>353803</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2918866099323809</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2651318234038</v>
+        <v>0.2663734686311748</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3245841213014951</v>
+        <v>0.3236109697913817</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>853</v>
@@ -2896,19 +2896,19 @@
         <v>908179</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>863824</v>
+        <v>859357</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>952948</v>
+        <v>955836</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4386554481105667</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4172321213547035</v>
+        <v>0.4150742343864823</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4602792995782882</v>
+        <v>0.4616743698700239</v>
       </c>
     </row>
     <row r="11">
@@ -3000,19 +3000,19 @@
         <v>232379</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>204916</v>
+        <v>206877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>260199</v>
+        <v>260772</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2625412092304147</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2315130034232211</v>
+        <v>0.2337291888372289</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2939718140872237</v>
+        <v>0.2946198065591761</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>454</v>
@@ -3021,19 +3021,19 @@
         <v>488874</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>460821</v>
+        <v>459323</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>518577</v>
+        <v>519310</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5588449857103862</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5267761385758123</v>
+        <v>0.5250644906581567</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5927990018691528</v>
+        <v>0.5936371318970818</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>670</v>
@@ -3042,19 +3042,19 @@
         <v>721253</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>677790</v>
+        <v>673106</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>760782</v>
+        <v>762516</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.4098242599889851</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3851277068012975</v>
+        <v>0.3824660931673031</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4322847736041299</v>
+        <v>0.4332703122869375</v>
       </c>
     </row>
     <row r="13">
@@ -3071,19 +3071,19 @@
         <v>104304</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>87760</v>
+        <v>83270</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>124967</v>
+        <v>125237</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1178428323735028</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.09915090717519247</v>
+        <v>0.09407862729354205</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.1411871149772963</v>
+        <v>0.1414924932811961</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>103</v>
@@ -3092,19 +3092,19 @@
         <v>106856</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>88548</v>
+        <v>89410</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>126867</v>
+        <v>129033</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.1221498424211379</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1012220785200721</v>
+        <v>0.102206657919132</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1450253985882551</v>
+        <v>0.1475011254398148</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>201</v>
@@ -3113,19 +3113,19 @@
         <v>211160</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>186863</v>
+        <v>183114</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>244239</v>
+        <v>238993</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.1199837081564559</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1061778698594956</v>
+        <v>0.1040474739274486</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.138779494585827</v>
+        <v>0.1357983241461845</v>
       </c>
     </row>
     <row r="14">
@@ -3142,19 +3142,19 @@
         <v>548431</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>519596</v>
+        <v>517899</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>579462</v>
+        <v>578624</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6196159583960824</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5870383992761028</v>
+        <v>0.585120620952199</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6546740772161125</v>
+        <v>0.6537273081969502</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>263</v>
@@ -3163,19 +3163,19 @@
         <v>279064</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>249888</v>
+        <v>252062</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>307197</v>
+        <v>306700</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3190051718684759</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2856531678687714</v>
+        <v>0.2881383101609569</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3511647442462948</v>
+        <v>0.3505966698204223</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>779</v>
@@ -3184,19 +3184,19 @@
         <v>827495</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>783972</v>
+        <v>785232</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>870832</v>
+        <v>876514</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.470192031854559</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4454615436870741</v>
+        <v>0.4461775933450194</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4948162998937617</v>
+        <v>0.4980452243590763</v>
       </c>
     </row>
     <row r="15">
@@ -3288,19 +3288,19 @@
         <v>140305</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>120663</v>
+        <v>121500</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>162678</v>
+        <v>163395</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2789236607380611</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.239874743084771</v>
+        <v>0.2415398140143231</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3234013486283018</v>
+        <v>0.3248268355083147</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>205</v>
@@ -3309,19 +3309,19 @@
         <v>219658</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>198731</v>
+        <v>196662</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>243694</v>
+        <v>243148</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4851792138277574</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4389548919187485</v>
+        <v>0.4343855885951503</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5382686948994879</v>
+        <v>0.5370631976230261</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>333</v>
@@ -3330,19 +3330,19 @@
         <v>359963</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>329475</v>
+        <v>326931</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>395215</v>
+        <v>390415</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3766253846568233</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3447258761477765</v>
+        <v>0.342064643974248</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4135099795490358</v>
+        <v>0.4084869629251456</v>
       </c>
     </row>
     <row r="17">
@@ -3359,19 +3359,19 @@
         <v>67741</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>53377</v>
+        <v>51851</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>88273</v>
+        <v>85189</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.134668263380166</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1061125252829822</v>
+        <v>0.1030790431881705</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1754851496026547</v>
+        <v>0.1693542926903298</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>60</v>
@@ -3380,19 +3380,19 @@
         <v>65585</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>50707</v>
+        <v>50582</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>81785</v>
+        <v>81102</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1448638504732996</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1120002124124735</v>
+        <v>0.111726018050279</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1806458365340237</v>
+        <v>0.1791382800270129</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>120</v>
@@ -3401,19 +3401,19 @@
         <v>133326</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>112932</v>
+        <v>112613</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>155816</v>
+        <v>158230</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1394978372774072</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1181591623910317</v>
+        <v>0.1178259335157607</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1630287261192103</v>
+        <v>0.1655548834863292</v>
       </c>
     </row>
     <row r="18">
@@ -3430,19 +3430,19 @@
         <v>294977</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>269484</v>
+        <v>274000</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>316347</v>
+        <v>318981</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5864080758817729</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5357286215267841</v>
+        <v>0.5447062898746214</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.628891815432211</v>
+        <v>0.6341276484909422</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>147</v>
@@ -3451,19 +3451,19 @@
         <v>167493</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>146116</v>
+        <v>146145</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>190150</v>
+        <v>189684</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3699569356989429</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.322739485805167</v>
+        <v>0.3228048011307941</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4200020796721065</v>
+        <v>0.4189726163848841</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>420</v>
@@ -3472,19 +3472,19 @@
         <v>462469</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>426775</v>
+        <v>428097</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>496803</v>
+        <v>496160</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.4838767780657696</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4465302886305207</v>
+        <v>0.4479136386008448</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5198004928174875</v>
+        <v>0.5191270490925198</v>
       </c>
     </row>
     <row r="19">
@@ -3576,19 +3576,19 @@
         <v>937152</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>883727</v>
+        <v>887476</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>993677</v>
+        <v>989998</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2748934958934197</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2592224880602165</v>
+        <v>0.2603220577359751</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2914741053579012</v>
+        <v>0.2903949002400442</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1869</v>
@@ -3597,19 +3597,19 @@
         <v>2015452</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1953222</v>
+        <v>1957396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>2080424</v>
+        <v>2071318</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5692155188102719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5516399920444878</v>
+        <v>0.5528188945322862</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5875652174933741</v>
+        <v>0.5849933896039364</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2735</v>
@@ -3618,19 +3618,19 @@
         <v>2952604</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>2866034</v>
+        <v>2865915</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>3035644</v>
+        <v>3032138</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4248412539191441</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.4123849629024258</v>
+        <v>0.4123679009847818</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4367896183481913</v>
+        <v>0.4362851912159559</v>
       </c>
     </row>
     <row r="21">
@@ -3647,19 +3647,19 @@
         <v>434649</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>396302</v>
+        <v>397277</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>476274</v>
+        <v>474015</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.127495085525144</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.1162468591995933</v>
+        <v>0.1165328243086561</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.1397048196616434</v>
+        <v>0.1390422565607744</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>448</v>
@@ -3668,19 +3668,19 @@
         <v>474789</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>436181</v>
+        <v>432854</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>522190</v>
+        <v>516233</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.1340927122426312</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.123188632698554</v>
+        <v>0.1222490420607921</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.1474798528440199</v>
+        <v>0.1457973571028262</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>858</v>
@@ -3689,19 +3689,19 @@
         <v>909439</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>853336</v>
+        <v>857602</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>968035</v>
+        <v>974613</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.1308563675820335</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.1227839371423483</v>
+        <v>0.1233977140547245</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.1392876070926678</v>
+        <v>0.1402341913491066</v>
       </c>
     </row>
     <row r="22">
@@ -3718,19 +3718,19 @@
         <v>2037344</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1979249</v>
+        <v>1977688</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2102711</v>
+        <v>2094950</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5976114185814363</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5805706184828413</v>
+        <v>0.5801127218622537</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6167855427171008</v>
+        <v>0.6145090319821006</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>965</v>
@@ -3739,19 +3739,19 @@
         <v>1050513</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>990565</v>
+        <v>995776</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1108912</v>
+        <v>1108779</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2966917689470969</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2797610696425492</v>
+        <v>0.2812327380256126</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.313185208364876</v>
+        <v>0.3131476377702343</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2882</v>
@@ -3760,19 +3760,19 @@
         <v>3087857</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3007119</v>
+        <v>3006180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3172982</v>
+        <v>3169999</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4443023784988225</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4326853419614348</v>
+        <v>0.4325501506049315</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4565507429610875</v>
+        <v>0.4561216560487397</v>
       </c>
     </row>
     <row r="23">
@@ -4104,19 +4104,19 @@
         <v>159753</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>137122</v>
+        <v>136493</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>184890</v>
+        <v>183022</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1417467771949686</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1216666312606204</v>
+        <v>0.1211080663986535</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1640501855132339</v>
+        <v>0.1623928282852543</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>376</v>
@@ -4125,19 +4125,19 @@
         <v>414340</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>381248</v>
+        <v>380165</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>449092</v>
+        <v>450372</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3292404301388213</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3029450405609264</v>
+        <v>0.3020846555364369</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3568547080633406</v>
+        <v>0.3578719866997737</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>519</v>
@@ -4146,19 +4146,19 @@
         <v>574093</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>530305</v>
+        <v>530141</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>617742</v>
+        <v>618692</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2406589293543904</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2223029526904483</v>
+        <v>0.2222342156965029</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2589563752290823</v>
+        <v>0.2593547723142799</v>
       </c>
     </row>
     <row r="5">
@@ -4175,19 +4175,19 @@
         <v>374492</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>344469</v>
+        <v>341353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>408698</v>
+        <v>405729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3322811878167171</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.305642193684884</v>
+        <v>0.3028768637815916</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.362631615834672</v>
+        <v>0.3599967888574923</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>489</v>
@@ -4196,19 +4196,19 @@
         <v>509662</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>475097</v>
+        <v>477959</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>545198</v>
+        <v>547416</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4049846388742842</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.377519053090745</v>
+        <v>0.3797931613642074</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4332219137351786</v>
+        <v>0.4349847110332905</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>855</v>
@@ -4217,19 +4217,19 @@
         <v>884154</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>836203</v>
+        <v>837099</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>931851</v>
+        <v>932671</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3706358451643696</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3505348387370043</v>
+        <v>0.3509104845805273</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3906301654745746</v>
+        <v>0.3909740100781255</v>
       </c>
     </row>
     <row r="6">
@@ -4246,19 +4246,19 @@
         <v>592788</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>557202</v>
+        <v>558906</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>623637</v>
+        <v>629041</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5259720349883142</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4943966151440187</v>
+        <v>0.495908802569952</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5533431440073406</v>
+        <v>0.5581384673366647</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>322</v>
@@ -4267,19 +4267,19 @@
         <v>334470</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>304402</v>
+        <v>304226</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>366452</v>
+        <v>367382</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2657749309868945</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2418823988762699</v>
+        <v>0.2417426192618248</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2911882166328737</v>
+        <v>0.2919268493499736</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>878</v>
@@ -4288,19 +4288,19 @@
         <v>927259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>874981</v>
+        <v>883043</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>974775</v>
+        <v>980168</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.38870522548124</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3667905622377477</v>
+        <v>0.3701702939136925</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4086239213637788</v>
+        <v>0.4108845841727947</v>
       </c>
     </row>
     <row r="7">
@@ -4392,19 +4392,19 @@
         <v>98785</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>80702</v>
+        <v>81728</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>119295</v>
+        <v>118471</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.108695831180061</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.08879780052134467</v>
+        <v>0.08992680415650957</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.131262788454673</v>
+        <v>0.1303559708250441</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>271</v>
@@ -4413,19 +4413,19 @@
         <v>297815</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>268139</v>
+        <v>264630</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327093</v>
+        <v>329267</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2968331237279278</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2672550031453541</v>
+        <v>0.2637581711883689</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.3260153380683634</v>
+        <v>0.3281816584061667</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>366</v>
@@ -4434,19 +4434,19 @@
         <v>396600</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>357698</v>
+        <v>363611</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>431750</v>
+        <v>433435</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2074125879902538</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1870675015125027</v>
+        <v>0.1901599275237371</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2257949536077586</v>
+        <v>0.2266763219310151</v>
       </c>
     </row>
     <row r="9">
@@ -4463,19 +4463,19 @@
         <v>261394</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>235812</v>
+        <v>235513</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>289245</v>
+        <v>293379</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2876175884680992</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2594686334536299</v>
+        <v>0.2591399222699236</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3182621205615934</v>
+        <v>0.3228114214136317</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>359</v>
@@ -4484,19 +4484,19 @@
         <v>378478</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>345937</v>
+        <v>346132</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>409930</v>
+        <v>411788</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3772303020201772</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3447968100318947</v>
+        <v>0.3449908632554828</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4085787022492673</v>
+        <v>0.4104310618806779</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>615</v>
@@ -4505,19 +4505,19 @@
         <v>639872</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>595609</v>
+        <v>599888</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>681874</v>
+        <v>684780</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.3346379124613938</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.311489247160804</v>
+        <v>0.3137274434277783</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3566039427561004</v>
+        <v>0.3581236428539668</v>
       </c>
     </row>
     <row r="10">
@@ -4534,19 +4534,19 @@
         <v>548645</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>517834</v>
+        <v>518513</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>577785</v>
+        <v>577168</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.6036865803518398</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.5697840104845063</v>
+        <v>0.5705315103213631</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6357494351610923</v>
+        <v>0.6350710127211066</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>318</v>
@@ -4555,19 +4555,19 @@
         <v>327014</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>297657</v>
+        <v>295540</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>354949</v>
+        <v>357244</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3259365742518951</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2966758009987724</v>
+        <v>0.2945659674227844</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3537788522108675</v>
+        <v>0.3560662297375175</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>848</v>
@@ -4576,19 +4576,19 @@
         <v>875660</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>835081</v>
+        <v>828168</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>924184</v>
+        <v>916896</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.4579494995483524</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4367275823856857</v>
+        <v>0.4331124835269898</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.483326445473564</v>
+        <v>0.479514878014846</v>
       </c>
     </row>
     <row r="11">
@@ -4680,19 +4680,19 @@
         <v>97505</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>80251</v>
+        <v>79900</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>116516</v>
+        <v>115313</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1183661366390417</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.09742085944275097</v>
+        <v>0.09699491794711361</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.1414437435598907</v>
+        <v>0.1399834540220297</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>212</v>
@@ -4701,19 +4701,19 @@
         <v>230804</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>203313</v>
+        <v>204355</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>257556</v>
+        <v>255833</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.299766059799973</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2640607000777417</v>
+        <v>0.265413946755702</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3345117618071456</v>
+        <v>0.332273188308611</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>306</v>
@@ -4722,19 +4722,19 @@
         <v>328309</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>296681</v>
+        <v>293477</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>361792</v>
+        <v>359805</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.206003544017684</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1861579658389618</v>
+        <v>0.1841475035255628</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2270128061347192</v>
+        <v>0.2257662958154778</v>
       </c>
     </row>
     <row r="13">
@@ -4751,19 +4751,19 @@
         <v>195460</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>167974</v>
+        <v>171300</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>219365</v>
+        <v>219600</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2372785541506205</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2039117725509001</v>
+        <v>0.2079497566001987</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2662981176684319</v>
+        <v>0.2665823220278074</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>236</v>
@@ -4772,19 +4772,19 @@
         <v>244482</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>221401</v>
+        <v>219652</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>273610</v>
+        <v>272821</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3175312720722251</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2875538813146802</v>
+        <v>0.2852819197831182</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3553621831543635</v>
+        <v>0.3543367819828733</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>430</v>
@@ -4793,19 +4793,19 @@
         <v>439943</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>401997</v>
+        <v>406686</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>477818</v>
+        <v>474040</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2760500156329905</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2522406023382746</v>
+        <v>0.2551826485217019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2998157114224785</v>
+        <v>0.2974447854482955</v>
       </c>
     </row>
     <row r="14">
@@ -4822,19 +4822,19 @@
         <v>530793</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>502309</v>
+        <v>504418</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>559681</v>
+        <v>559303</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6443553092103378</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6097760815149496</v>
+        <v>0.6123371590073203</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6794234417234465</v>
+        <v>0.678964711915417</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>279</v>
@@ -4843,19 +4843,19 @@
         <v>294661</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>268559</v>
+        <v>266207</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>324226</v>
+        <v>322793</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3827026681278018</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3488024356201754</v>
+        <v>0.345747071475332</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4211017836173022</v>
+        <v>0.4192404492448771</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>778</v>
@@ -4864,19 +4864,19 @@
         <v>825454</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>782983</v>
+        <v>780819</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>868727</v>
+        <v>862587</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5179464403493255</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4912970055433018</v>
+        <v>0.4899390546682643</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5450985497599593</v>
+        <v>0.5412458877120081</v>
       </c>
     </row>
     <row r="15">
@@ -4968,19 +4968,19 @@
         <v>69054</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>54449</v>
+        <v>52616</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>86236</v>
+        <v>84676</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1365764340327595</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1076904750866233</v>
+        <v>0.1040658231286144</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.1705593652179863</v>
+        <v>0.1674746882502363</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>160</v>
@@ -4989,19 +4989,19 @@
         <v>174862</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>153217</v>
+        <v>153118</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>197161</v>
+        <v>196160</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3579292146203472</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3136233823719208</v>
+        <v>0.3134201781009925</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4035724684971781</v>
+        <v>0.4015233627857265</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>221</v>
@@ -5010,19 +5010,19 @@
         <v>243916</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>216666</v>
+        <v>217252</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>273546</v>
+        <v>274481</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2453527329680785</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2179420383318214</v>
+        <v>0.2185318543248953</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2751566233930777</v>
+        <v>0.276097830172958</v>
       </c>
     </row>
     <row r="17">
@@ -5039,19 +5039,19 @@
         <v>116633</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>98440</v>
+        <v>95768</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>137090</v>
+        <v>134536</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2306793681069237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1946970677051054</v>
+        <v>0.189413028903605</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2711400662366836</v>
+        <v>0.2660886272841946</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>118</v>
@@ -5060,19 +5060,19 @@
         <v>124536</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>104774</v>
+        <v>106918</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>144885</v>
+        <v>143700</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.254914724409137</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2144629444106932</v>
+        <v>0.2188527652619224</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2965674694174075</v>
+        <v>0.2941429960540231</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>227</v>
@@ -5081,19 +5081,19 @@
         <v>241169</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>214156</v>
+        <v>210839</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>271518</v>
+        <v>267755</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2425890100591755</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2154168962715071</v>
+        <v>0.2120805527692743</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2731169870695862</v>
+        <v>0.2693320187466377</v>
       </c>
     </row>
     <row r="18">
@@ -5110,19 +5110,19 @@
         <v>319919</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>296883</v>
+        <v>300454</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>339512</v>
+        <v>342636</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.6327441978603168</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5871816436527719</v>
+        <v>0.5942449399562405</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6714947182766789</v>
+        <v>0.6776744276490698</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>176</v>
@@ -5131,19 +5131,19 @@
         <v>189141</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>167260</v>
+        <v>166553</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>213656</v>
+        <v>210968</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3871560609705157</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3423680202394854</v>
+        <v>0.3409210615602422</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4373357279002721</v>
+        <v>0.4318347543297749</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>476</v>
@@ -5152,19 +5152,19 @@
         <v>509060</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>475888</v>
+        <v>478565</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>542911</v>
+        <v>543052</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.512058256972746</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4786902636483746</v>
+        <v>0.4813833166934809</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5461084299695387</v>
+        <v>0.5462501383714936</v>
       </c>
     </row>
     <row r="19">
@@ -5256,19 +5256,19 @@
         <v>425098</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>388402</v>
+        <v>389117</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>467851</v>
+        <v>469050</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1263208507203815</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1154163431861962</v>
+        <v>0.1156289506360646</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1390253478910663</v>
+        <v>0.1393816096207045</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1019</v>
@@ -5277,19 +5277,19 @@
         <v>1117821</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1061914</v>
+        <v>1066147</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1175209</v>
+        <v>1179763</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3175388696205407</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.301657522094949</v>
+        <v>0.3028599252720343</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3338410435744334</v>
+        <v>0.3351348253202474</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1412</v>
@@ -5298,19 +5298,19 @@
         <v>1542919</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1473948</v>
+        <v>1476034</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1618872</v>
+        <v>1617256</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2240826816206627</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2140658395922873</v>
+        <v>0.2143688619767561</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2351136125908939</v>
+        <v>0.2348789107537313</v>
       </c>
     </row>
     <row r="21">
@@ -5327,19 +5327,19 @@
         <v>947979</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>895088</v>
+        <v>896754</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>998207</v>
+        <v>1000657</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.2816987587947135</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2659816776209077</v>
+        <v>0.2664768362185343</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.296624201162581</v>
+        <v>0.2973521286611407</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1202</v>
@@ -5348,19 +5348,19 @@
         <v>1257157</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1200827</v>
+        <v>1199894</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1312667</v>
+        <v>1312054</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3571201878492619</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3411185067719101</v>
+        <v>0.3408533676194936</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.372888710110614</v>
+        <v>0.3727145844381569</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2127</v>
@@ -5369,19 +5369,19 @@
         <v>2205137</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2128690</v>
+        <v>2123554</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2280672</v>
+        <v>2280845</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.3202586028716368</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.3091560340645265</v>
+        <v>0.3084101094619785</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3312288036771061</v>
+        <v>0.3312539983374341</v>
       </c>
     </row>
     <row r="22">
@@ -5398,19 +5398,19 @@
         <v>1992147</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1934960</v>
+        <v>1935413</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2050598</v>
+        <v>2049915</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5919803904849049</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5749870434663478</v>
+        <v>0.5751216458509579</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.6093496229753712</v>
+        <v>0.6091466956563059</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1095</v>
@@ -5419,19 +5419,19 @@
         <v>1145286</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1088468</v>
+        <v>1090680</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1208321</v>
+        <v>1199096</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3253409425301974</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3092008114473588</v>
+        <v>0.3098289431086835</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3432473614574404</v>
+        <v>0.3406266654518174</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2980</v>
@@ -5440,19 +5440,19 @@
         <v>3137433</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3058813</v>
+        <v>3049602</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3221679</v>
+        <v>3220312</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4556587155077005</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4442405144235638</v>
+        <v>0.4429027490800582</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4678940720040948</v>
+        <v>0.4676955776831301</v>
       </c>
     </row>
     <row r="23">
@@ -5784,19 +5784,19 @@
         <v>100016</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>80392</v>
+        <v>80739</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>123414</v>
+        <v>123610</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2015182430481797</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1619788093952707</v>
+        <v>0.1626777002390764</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2486639911181063</v>
+        <v>0.2490584796658747</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>288</v>
@@ -5805,19 +5805,19 @@
         <v>196229</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>175920</v>
+        <v>177315</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>216896</v>
+        <v>221024</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3155256773498757</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2828703722290582</v>
+        <v>0.2851133910558007</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.348757164138744</v>
+        <v>0.3553950874431929</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>370</v>
@@ -5826,19 +5826,19 @@
         <v>296244</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>266800</v>
+        <v>265024</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>326075</v>
+        <v>326970</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.264924711330609</v>
+        <v>0.2649247113306089</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2385938475021933</v>
+        <v>0.2370053550082903</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2916015920549709</v>
+        <v>0.2924018519837321</v>
       </c>
     </row>
     <row r="5">
@@ -5855,19 +5855,19 @@
         <v>142649</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>120771</v>
+        <v>122180</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>164819</v>
+        <v>165293</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2874193905052723</v>
+        <v>0.2874193905052724</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2433383965774407</v>
+        <v>0.2461771732152406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3320880952964246</v>
+        <v>0.3330429201749663</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>354</v>
@@ -5876,19 +5876,19 @@
         <v>259068</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>236012</v>
+        <v>236596</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>281921</v>
+        <v>280423</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.4165685818712372</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.3794951097862531</v>
+        <v>0.3804337665383861</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.4533153953432683</v>
+        <v>0.4509053051460075</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>491</v>
@@ -5897,19 +5897,19 @@
         <v>401717</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>371595</v>
+        <v>369766</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>433190</v>
+        <v>434004</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.3592471108307496</v>
+        <v>0.3592471108307495</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.3323098168042117</v>
+        <v>0.3306737899601506</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3873922381717526</v>
+        <v>0.3881206990570326</v>
       </c>
     </row>
     <row r="6">
@@ -5926,19 +5926,19 @@
         <v>253645</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>227191</v>
+        <v>228624</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>277593</v>
+        <v>277944</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5110623664465479</v>
+        <v>0.5110623664465478</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.457760223345393</v>
+        <v>0.4606467723322101</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5593139558076021</v>
+        <v>0.5600204331264674</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>217</v>
@@ -5947,19 +5947,19 @@
         <v>166613</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>148609</v>
+        <v>147533</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>187175</v>
+        <v>187675</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>0.2679057407788869</v>
+        <v>0.2679057407788868</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2389550609034042</v>
+        <v>0.2372260285258685</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.3009682442903516</v>
+        <v>0.3017722373859927</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>451</v>
@@ -5968,19 +5968,19 @@
         <v>420259</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>388929</v>
+        <v>391326</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>458710</v>
+        <v>453296</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.3758281778386416</v>
+        <v>0.3758281778386415</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.3478111650013854</v>
+        <v>0.3499539711529759</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.4102143607176304</v>
+        <v>0.4053725862051769</v>
       </c>
     </row>
     <row r="7">
@@ -6072,19 +6072,19 @@
         <v>117069</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>97663</v>
+        <v>95853</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>143347</v>
+        <v>146024</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1220250741398665</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1017972255616625</v>
+        <v>0.09991098947180603</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.1494160929837492</v>
+        <v>0.1522056440900304</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>483</v>
@@ -6093,19 +6093,19 @@
         <v>316114</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>291949</v>
+        <v>288961</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>345726</v>
+        <v>345301</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2840099768573716</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2622988685348938</v>
+        <v>0.2596145620742761</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.310614411396517</v>
+        <v>0.3102327513753474</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>593</v>
@@ -6114,19 +6114,19 @@
         <v>433183</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>396190</v>
+        <v>398653</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>469924</v>
+        <v>469259</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2090225858461268</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.191172562383658</v>
+        <v>0.1923606373484293</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2267511664902363</v>
+        <v>0.2264299621053234</v>
       </c>
     </row>
     <row r="9">
@@ -6143,19 +6143,19 @@
         <v>293504</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>259833</v>
+        <v>264226</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>323616</v>
+        <v>325796</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.3059302750922448</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2708329486154568</v>
+        <v>0.2754129313025343</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3373172939138471</v>
+        <v>0.3395885742672059</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>633</v>
@@ -6164,19 +6164,19 @@
         <v>421684</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>393737</v>
+        <v>394424</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>450826</v>
+        <v>450088</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.3788583172617267</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.3537492376946515</v>
+        <v>0.3543668385521495</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.4050398820135602</v>
+        <v>0.4043769103182815</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>923</v>
@@ -6185,19 +6185,19 @@
         <v>715189</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>670456</v>
+        <v>669710</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>756738</v>
+        <v>754563</v>
       </c>
       <c r="U9" s="6" t="n">
-        <v>0.3450978647621215</v>
+        <v>0.3450978647621216</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.3235128775999983</v>
+        <v>0.3231532014178106</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.365146367070759</v>
+        <v>0.3640967623957961</v>
       </c>
     </row>
     <row r="10">
@@ -6214,19 +6214,19 @@
         <v>548810</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>515107</v>
+        <v>511612</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>583050</v>
+        <v>582873</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.5720446507678887</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.536915361892751</v>
+        <v>0.5332723004839464</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.6077346519517544</v>
+        <v>0.6075497289348645</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>487</v>
@@ -6235,19 +6235,19 @@
         <v>375241</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>346868</v>
+        <v>346131</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>403349</v>
+        <v>405366</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3371317058809018</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3116405434522968</v>
+        <v>0.3109784587386817</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3623845782021174</v>
+        <v>0.3641968353346698</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>996</v>
@@ -6256,19 +6256,19 @@
         <v>924051</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>879595</v>
+        <v>879465</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>969145</v>
+        <v>967348</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.4458795493917516</v>
+        <v>0.4458795493917517</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.424428076557253</v>
+        <v>0.4243657285920496</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4676387325797575</v>
+        <v>0.4667717149856497</v>
       </c>
     </row>
     <row r="11">
@@ -6360,19 +6360,19 @@
         <v>149778</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>126615</v>
+        <v>126804</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>175554</v>
+        <v>177748</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1432518248351123</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1210982222271197</v>
+        <v>0.1212796893437283</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.167904854257906</v>
+        <v>0.1700033881506778</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>464</v>
@@ -6381,19 +6381,19 @@
         <v>301180</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>277584</v>
+        <v>274931</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>328212</v>
+        <v>327318</v>
       </c>
       <c r="N12" s="6" t="n">
-        <v>0.2874836277320624</v>
+        <v>0.2874836277320625</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2649607795273085</v>
+        <v>0.262428204629136</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3132867641799454</v>
+        <v>0.3124326165111956</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>613</v>
@@ -6402,19 +6402,19 @@
         <v>450957</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>414558</v>
+        <v>417214</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>485049</v>
+        <v>488470</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.215439665477072</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1980504493515833</v>
+        <v>0.1993193111028388</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2317265234296109</v>
+        <v>0.233361065771863</v>
       </c>
     </row>
     <row r="13">
@@ -6431,19 +6431,19 @@
         <v>272079</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>241404</v>
+        <v>241526</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>302717</v>
+        <v>303943</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2602246501378942</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2308866531022595</v>
+        <v>0.2310030429338869</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2895275798928067</v>
+        <v>0.2907006985082521</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>515</v>
@@ -6452,19 +6452,19 @@
         <v>350946</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>322946</v>
+        <v>324718</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>378425</v>
+        <v>377416</v>
       </c>
       <c r="N13" s="6" t="n">
-        <v>0.3349866475847869</v>
+        <v>0.334986647584787</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3082594176189824</v>
+        <v>0.3099517338224549</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3612160647252717</v>
+        <v>0.3602529824943137</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>789</v>
@@ -6473,19 +6473,19 @@
         <v>623025</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>582051</v>
+        <v>582666</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>667644</v>
+        <v>667224</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.297642938264174</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2780681151795781</v>
+        <v>0.2783620122761927</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3189592948050193</v>
+        <v>0.3187585170257316</v>
       </c>
     </row>
     <row r="14">
@@ -6502,19 +6502,19 @@
         <v>623698</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>587404</v>
+        <v>590677</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>655681</v>
+        <v>660686</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.5965235250269936</v>
+        <v>0.5965235250269935</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5618113453297167</v>
+        <v>0.5649420059513057</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6271139142430238</v>
+        <v>0.6319000375353594</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>537</v>
@@ -6523,19 +6523,19 @@
         <v>395516</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367814</v>
+        <v>370777</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425034</v>
+        <v>424466</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3775297246831507</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3510872567622437</v>
+        <v>0.353915863568933</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4057057029503119</v>
+        <v>0.405163616591846</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1142</v>
@@ -6544,19 +6544,19 @@
         <v>1019213</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>972460</v>
+        <v>970456</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1063448</v>
+        <v>1062852</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.486917396258754</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.464581885473952</v>
+        <v>0.4636243142410451</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5080500208999089</v>
+        <v>0.5077652602504839</v>
       </c>
     </row>
     <row r="15">
@@ -6648,19 +6648,19 @@
         <v>237784</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>211284</v>
+        <v>208142</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>266820</v>
+        <v>265503</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.2439450345768124</v>
+        <v>0.2439450345768123</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2167577661371305</v>
+        <v>0.2135349803053115</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2737329956200725</v>
+        <v>0.2723818363067687</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>571</v>
@@ -6669,19 +6669,19 @@
         <v>350905</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>325057</v>
+        <v>321945</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>378747</v>
+        <v>377436</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.3872567015302188</v>
+        <v>0.3872567015302187</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3587315887547187</v>
+        <v>0.3552965987440027</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4179834334559845</v>
+        <v>0.4165367970822511</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>821</v>
@@ -6690,19 +6690,19 @@
         <v>588689</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>552220</v>
+        <v>547682</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>627216</v>
+        <v>629530</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3129867833299009</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2935975522182287</v>
+        <v>0.2911848172138849</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3334706513393575</v>
+        <v>0.3347007263674622</v>
       </c>
     </row>
     <row r="17">
@@ -6719,19 +6719,19 @@
         <v>178163</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>154123</v>
+        <v>153743</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>206296</v>
+        <v>204816</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1827788151885689</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1581162605112022</v>
+        <v>0.1577260085382448</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2116414546963004</v>
+        <v>0.2101227839168337</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>274</v>
@@ -6740,19 +6740,19 @@
         <v>197483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>173326</v>
+        <v>173896</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>222523</v>
+        <v>217947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2179410765490428</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.191281312874353</v>
+        <v>0.1919110307732235</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2455754072440059</v>
+        <v>0.2405258895072737</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>450</v>
@@ -6761,19 +6761,19 @@
         <v>375645</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>344304</v>
+        <v>344403</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>411224</v>
+        <v>413164</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.1997185666132004</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1830553990328879</v>
+        <v>0.1831081833394844</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2186345421516352</v>
+        <v>0.2196660644901545</v>
       </c>
     </row>
     <row r="18">
@@ -6790,19 +6790,19 @@
         <v>558798</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>522825</v>
+        <v>525234</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>590103</v>
+        <v>591374</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5732761502346188</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5363713280588261</v>
+        <v>0.5388423527943697</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6053917647041793</v>
+        <v>0.6066962648253338</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>473</v>
@@ -6811,19 +6811,19 @@
         <v>357742</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>329945</v>
+        <v>332268</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>386325</v>
+        <v>386371</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3948022219207385</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.3641256155417574</v>
+        <v>0.3666891697158693</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.4263462636050326</v>
+        <v>0.4263977642788437</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>993</v>
@@ -6832,19 +6832,19 @@
         <v>916540</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>875404</v>
+        <v>875560</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>959570</v>
+        <v>963021</v>
       </c>
       <c r="U18" s="6" t="n">
-        <v>0.4872946500568989</v>
+        <v>0.4872946500568988</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.4654240461509551</v>
+        <v>0.465507150861056</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.510172240577313</v>
+        <v>0.5120074156185108</v>
       </c>
     </row>
     <row r="19">
@@ -6936,19 +6936,19 @@
         <v>604646</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>555196</v>
+        <v>560233</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>655842</v>
+        <v>654291</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1739491974453518</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1597231008894973</v>
+        <v>0.1611720708362019</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1886776339490792</v>
+        <v>0.1882313592909427</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>1806</v>
@@ -6957,19 +6957,19 @@
         <v>1164427</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1114024</v>
+        <v>1113887</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1215311</v>
+        <v>1215821</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3156724191738093</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.302008341532309</v>
+        <v>0.3019712472137699</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.3294669396596487</v>
+        <v>0.3296050422867297</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>2397</v>
@@ -6978,19 +6978,19 @@
         <v>1769073</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>1700482</v>
+        <v>1700467</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>1842060</v>
+        <v>1842999</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2469147715635593</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2373413191962104</v>
+        <v>0.2373391772146977</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2571017723384731</v>
+        <v>0.2572328001496691</v>
       </c>
     </row>
     <row r="21">
@@ -7007,19 +7007,19 @@
         <v>886395</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>832747</v>
+        <v>831917</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>940886</v>
+        <v>943397</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.2550049253831997</v>
+        <v>0.2550049253831996</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.2395710802478285</v>
+        <v>0.2393322287584205</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.2706811926659698</v>
+        <v>0.2714036650816633</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>1776</v>
@@ -7028,19 +7028,19 @@
         <v>1229181</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1180112</v>
+        <v>1179816</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1279235</v>
+        <v>1281403</v>
       </c>
       <c r="N21" s="6" t="n">
         <v>0.3332270096476463</v>
       </c>
       <c r="O21" s="6" t="n">
-        <v>0.3199244543544952</v>
+        <v>0.319844363302175</v>
       </c>
       <c r="P21" s="6" t="n">
-        <v>0.3467965218507042</v>
+        <v>0.3473842250499758</v>
       </c>
       <c r="Q21" s="5" t="n">
         <v>2653</v>
@@ -7049,19 +7049,19 @@
         <v>2115576</v>
       </c>
       <c r="S21" s="5" t="n">
-        <v>2042779</v>
+        <v>2044053</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>2191929</v>
+        <v>2193269</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.2952772196301777</v>
       </c>
       <c r="V21" s="6" t="n">
-        <v>0.2851167633433987</v>
+        <v>0.2852945575760377</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.3059340442705827</v>
+        <v>0.3061210233580476</v>
       </c>
     </row>
     <row r="22">
@@ -7078,19 +7078,19 @@
         <v>1984951</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1924382</v>
+        <v>1915426</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>2054337</v>
+        <v>2051249</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5710458771714486</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.5536208670799154</v>
+        <v>0.5510443980936468</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5910073996512574</v>
+        <v>0.5901191062610418</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1714</v>
@@ -7099,19 +7099,19 @@
         <v>1295112</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1247496</v>
+        <v>1243134</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1351214</v>
+        <v>1349123</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>0.3511005711785443</v>
+        <v>0.3511005711785444</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3381919898609118</v>
+        <v>0.3370095607747555</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.366309588675409</v>
+        <v>0.3657428855020391</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>3582</v>
@@ -7120,19 +7120,19 @@
         <v>3280063</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>3202163</v>
+        <v>3194421</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>3366811</v>
+        <v>3361821</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4578080088062629</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.4469353826553608</v>
+        <v>0.4458547075892961</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4699157266144733</v>
+        <v>0.4692192786060285</v>
       </c>
     </row>
     <row r="23">
